--- a/tests/testthat/fixtures/logger_reads/YOWN_Logger_Tracking.xlsx
+++ b/tests/testthat/fixtures/logger_reads/YOWN_Logger_Tracking.xlsx
@@ -1,53 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtdelapl\Documents\YGwater\tests\testthat\fixtures\logger_reads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EDF74-169F-4A7E-BA8A-7C8A9CCA8780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>YOWN_ID</t>
-  </si>
-  <si>
-    <t>Logger_Make</t>
-  </si>
-  <si>
-    <t>Logger_Type</t>
-  </si>
-  <si>
-    <t>Logger_Model</t>
-  </si>
-  <si>
-    <t>Logger_Serial</t>
-  </si>
-  <si>
-    <t>Deploy_Date</t>
-  </si>
-  <si>
-    <t>Retrieve_Date</t>
+    <t xml:space="preserve">YOWN_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger_Make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger_Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger_Serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy_Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,15 +76,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -373,16 +357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +389,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>